--- a/Revised decison matrix using M-6.xlsx
+++ b/Revised decison matrix using M-6.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heshifan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A440528C-48F7-EE4B-B366-C82CA2878AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expert_1" sheetId="2" r:id="rId1"/>
-    <sheet name="Expert_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Expert_3" sheetId="4" r:id="rId3"/>
-    <sheet name="Expert_4" sheetId="5" r:id="rId4"/>
-    <sheet name="Expert_5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Expert_1" r:id="rId4" sheetId="2"/>
+    <sheet name="Expert_2" r:id="rId6" sheetId="3"/>
+    <sheet name="Expert_3" r:id="rId7" sheetId="4"/>
+    <sheet name="Expert_4" r:id="rId8" sheetId="5"/>
+    <sheet name="Expert_5" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Alternative_1</t>
   </si>
@@ -110,19 +111,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,413 +455,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3E2F43-7934-964B-A372-885B247EC7EC}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0.33304346888793201</v>
-      </c>
-      <c r="C2">
-        <v>0.2772572419035591</v>
-      </c>
-      <c r="D2">
-        <v>0.50307637325256183</v>
-      </c>
-      <c r="E2">
-        <v>0.60169503446806782</v>
-      </c>
-      <c r="F2">
-        <v>0.73502758569601223</v>
-      </c>
-      <c r="G2">
-        <v>0.64755246744168904</v>
-      </c>
-      <c r="H2">
-        <v>0.46591391344061789</v>
-      </c>
-      <c r="I2">
-        <v>0.41182982475384261</v>
-      </c>
-      <c r="J2">
-        <v>0.3744039226505384</v>
-      </c>
-      <c r="K2">
-        <v>0.39547727153311074</v>
-      </c>
-      <c r="L2">
-        <v>0.59094355568921797</v>
-      </c>
-      <c r="M2">
-        <v>0.92967742885078508</v>
-      </c>
-      <c r="N2">
-        <v>0.50870369420332884</v>
-      </c>
-      <c r="O2">
-        <v>0.97379682027021386</v>
-      </c>
-      <c r="P2">
-        <v>0.43884388830496812</v>
-      </c>
-      <c r="Q2">
-        <v>0.61176488892119818</v>
-      </c>
-      <c r="R2">
-        <v>0.73091595515714181</v>
-      </c>
-      <c r="S2">
-        <v>0.25138311084702453</v>
-      </c>
-      <c r="T2">
-        <v>0.89835216440807841</v>
-      </c>
-      <c r="U2">
-        <v>0.91588785998283506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0.76184440712328627</v>
-      </c>
-      <c r="C3">
-        <v>0.67775511155825041</v>
-      </c>
-      <c r="D3">
-        <v>0.35937575715061448</v>
-      </c>
-      <c r="E3">
-        <v>0.65389212369255578</v>
-      </c>
-      <c r="F3">
-        <v>0.77033783887375828</v>
-      </c>
-      <c r="G3">
-        <v>0.83527234087426694</v>
-      </c>
-      <c r="H3">
-        <v>0.77200000951728354</v>
-      </c>
-      <c r="I3">
-        <v>0.5765647153997292</v>
-      </c>
-      <c r="J3">
-        <v>0.65517242331052727</v>
-      </c>
-      <c r="K3">
-        <v>0.85401318357056932</v>
-      </c>
-      <c r="L3">
-        <v>0.45324297073784159</v>
-      </c>
-      <c r="M3">
-        <v>0.45378598670904635</v>
-      </c>
-      <c r="N3">
-        <v>0.6721568441121677</v>
-      </c>
-      <c r="O3">
-        <v>0.23833957797189295</v>
-      </c>
-      <c r="P3">
-        <v>0.48494361471237418</v>
-      </c>
-      <c r="Q3">
-        <v>0.37169292425922817</v>
-      </c>
-      <c r="R3">
-        <v>0.60331266501029834</v>
-      </c>
-      <c r="S3">
-        <v>0.51501357281257643</v>
-      </c>
-      <c r="T3">
-        <v>0.24277456647411036</v>
-      </c>
-      <c r="U3">
-        <v>0.77794679956880464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>0.38965231050647287</v>
-      </c>
-      <c r="C4">
-        <v>0.6212536294186074</v>
-      </c>
-      <c r="D4">
-        <v>0.43750000000026174</v>
-      </c>
-      <c r="E4">
-        <v>0.30599088304924305</v>
-      </c>
-      <c r="F4">
-        <v>0.22538475215991452</v>
-      </c>
-      <c r="G4">
-        <v>0.17317355826382766</v>
-      </c>
-      <c r="H4">
-        <v>0.17345416164308455</v>
-      </c>
-      <c r="I4">
-        <v>0.36454067669304724</v>
-      </c>
-      <c r="J4">
-        <v>0.36302004316653103</v>
-      </c>
-      <c r="K4">
-        <v>0.29871736706422802</v>
-      </c>
-      <c r="L4">
-        <v>0.27999999048138324</v>
-      </c>
-      <c r="M4">
-        <v>0.22068722753731065</v>
-      </c>
-      <c r="N4">
-        <v>0.6639476156601577</v>
-      </c>
-      <c r="O4">
-        <v>0.4528676565761186</v>
-      </c>
-      <c r="P4">
-        <v>0.40657029891354218</v>
-      </c>
-      <c r="Q4">
-        <v>0.58824088172821465</v>
-      </c>
-      <c r="R4">
-        <v>0.22360293165693146</v>
-      </c>
-      <c r="S4">
-        <v>0.84498767227892857</v>
-      </c>
-      <c r="T4">
-        <v>0.2656989853906857</v>
-      </c>
-      <c r="U4">
-        <v>4.2846504085902959E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0.84756065296818395</v>
-      </c>
-      <c r="C5">
-        <v>0.36285966117522345</v>
-      </c>
-      <c r="D5">
-        <v>0.45479715909397028</v>
-      </c>
-      <c r="E5">
-        <v>0.3544230674043784</v>
-      </c>
-      <c r="F5">
-        <v>0.69760519762540918</v>
-      </c>
-      <c r="G5">
-        <v>0.33190985041929288</v>
-      </c>
-      <c r="H5">
-        <v>0.35525707109048271</v>
-      </c>
-      <c r="I5">
-        <v>0.59172949697273058</v>
-      </c>
-      <c r="J5">
-        <v>0.28042862925534551</v>
-      </c>
-      <c r="K5">
-        <v>8.7247256035418719E-2</v>
-      </c>
-      <c r="L5">
-        <v>0.27584480416147567</v>
-      </c>
-      <c r="M5">
-        <v>0.47261815874914287</v>
-      </c>
-      <c r="N5">
-        <v>0.1638904735029382</v>
-      </c>
-      <c r="O5">
-        <v>0.27120005005452608</v>
-      </c>
-      <c r="P5">
-        <v>0.17128866780110011</v>
-      </c>
-      <c r="Q5">
-        <v>0.59312686100818812</v>
-      </c>
-      <c r="R5">
-        <v>0.38810809858938394</v>
-      </c>
-      <c r="S5">
-        <v>0.34896214364801131</v>
-      </c>
-      <c r="T5">
-        <v>0.59454033823197572</v>
-      </c>
-      <c r="U5">
-        <v>0.60290114806870476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0.37398943388570616</v>
-      </c>
-      <c r="C6">
-        <v>0.23916618757264282</v>
-      </c>
-      <c r="D6">
-        <v>0.58474334812792994</v>
-      </c>
-      <c r="E6">
-        <v>0.32739575241338653</v>
-      </c>
-      <c r="F6">
-        <v>0.29872849466405976</v>
-      </c>
-      <c r="G6">
-        <v>0.33621612255502925</v>
-      </c>
-      <c r="H6">
-        <v>0.42768447895393619</v>
-      </c>
-      <c r="I6">
-        <v>0.66083535008006644</v>
-      </c>
-      <c r="J6">
-        <v>0.84795124861016402</v>
-      </c>
-      <c r="K6">
-        <v>0.33648619294839421</v>
-      </c>
-      <c r="L6">
-        <v>0.97200324040562824</v>
-      </c>
-      <c r="M6">
-        <v>0.33830091032744675</v>
-      </c>
-      <c r="N6">
-        <v>0.36525147295446547</v>
-      </c>
-      <c r="O6">
-        <v>0.44377694424990788</v>
-      </c>
-      <c r="P6">
-        <v>0.6598569713478768</v>
-      </c>
-      <c r="Q6">
-        <v>0.40000000128661312</v>
-      </c>
-      <c r="R6">
-        <v>0.83874510703316996</v>
-      </c>
-      <c r="S6">
-        <v>0.73801958083047814</v>
-      </c>
-      <c r="T6">
-        <v>0.40462427745774016</v>
-      </c>
-      <c r="U6">
-        <v>0.34613494224369096</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20DB6AB-1DF5-EC45-BBAA-555718AB66A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -936,64 +541,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.3330434695161697</v>
+        <v>0.5280130616315946</v>
       </c>
       <c r="C2">
-        <v>0.26026989054586402</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D2">
-        <v>0.39200000018915493</v>
+        <v>0.6785714285714275</v>
       </c>
       <c r="E2">
-        <v>0.77528675890978782</v>
+        <v>0.4247161901307732</v>
       </c>
       <c r="F2">
-        <v>0.53502756740496271</v>
+        <v>0.2470184999443168</v>
       </c>
       <c r="G2">
-        <v>0.44755244915189968</v>
+        <v>0.6111111111113126</v>
       </c>
       <c r="H2">
-        <v>0.46783918648362521</v>
+        <v>0.17558992851574412</v>
       </c>
       <c r="I2">
-        <v>0.61182984352906211</v>
+        <v>0.6547912255297788</v>
       </c>
       <c r="J2">
-        <v>0.17440390416511845</v>
+        <v>0.638844210994956</v>
       </c>
       <c r="K2">
-        <v>0.47953216374010227</v>
+        <v>0.38786852750333894</v>
       </c>
       <c r="L2">
-        <v>0.39094353721038472</v>
+        <v>0.6547912255297796</v>
       </c>
       <c r="M2">
-        <v>0.9296774283200997</v>
+        <v>0.21576849994430108</v>
       </c>
       <c r="N2">
-        <v>0.70870371266851107</v>
+        <v>0.2715410520081806</v>
       </c>
       <c r="O2">
-        <v>0.97379681975551735</v>
+        <v>0.26666666666665423</v>
       </c>
       <c r="P2">
-        <v>0.23884386967968627</v>
+        <v>0.5939064418080685</v>
       </c>
       <c r="Q2">
-        <v>0.50995873608630793</v>
+        <v>0.4247161901307644</v>
       </c>
       <c r="R2">
-        <v>0.53091593665675607</v>
+        <v>0.2470184999443168</v>
       </c>
       <c r="S2">
-        <v>0.25138311138567832</v>
+        <v>0.5939064418080675</v>
       </c>
       <c r="T2">
-        <v>0.69835214590581507</v>
+        <v>0.5280130616315897</v>
       </c>
       <c r="U2">
-        <v>0.91588785943506701</v>
+        <v>0.3939393939380178</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1001,64 +606,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.65765703363001404</v>
+        <v>0.32993939393799704</v>
       </c>
       <c r="C3">
-        <v>0.67775511101155972</v>
+        <v>0.7697372244158622</v>
       </c>
       <c r="D3">
-        <v>0.19650613448580392</v>
+        <v>0.27660524689943883</v>
       </c>
       <c r="E3">
-        <v>0.45389210519819229</v>
+        <v>0.5603603603590361</v>
       </c>
       <c r="F3">
-        <v>0.77033783802242906</v>
+        <v>0.271541052008178</v>
       </c>
       <c r="G3">
-        <v>0.83527234032825848</v>
+        <v>0.2555555555526452</v>
       </c>
       <c r="H3">
-        <v>0.57199999101695476</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="I3">
-        <v>0.3765646968996656</v>
+        <v>0.27154105200817913</v>
       </c>
       <c r="J3">
-        <v>0.4551724048102283</v>
+        <v>0.2209698929555437</v>
       </c>
       <c r="K3">
-        <v>0.85401318302668294</v>
+        <v>0.6153846153846145</v>
       </c>
       <c r="L3">
-        <v>0.65324298924359758</v>
+        <v>0.6864038910825292</v>
       </c>
       <c r="M3">
-        <v>0.65378600521402608</v>
+        <v>0.4923076923056393</v>
       </c>
       <c r="N3">
-        <v>0.47215682560972261</v>
+        <v>0.42471619013076845</v>
       </c>
       <c r="O3">
-        <v>0.43775011887641085</v>
+        <v>0.3878685275033389</v>
       </c>
       <c r="P3">
-        <v>0.68494363320438512</v>
+        <v>0.44024024023784725</v>
       </c>
       <c r="Q3">
-        <v>0.57169294320831265</v>
+        <v>0.5939064418080763</v>
       </c>
       <c r="R3">
-        <v>0.80331268352151497</v>
+        <v>0.23529411764705777</v>
       </c>
       <c r="S3">
-        <v>0.31501355430299838</v>
+        <v>0.17857142857142771</v>
       </c>
       <c r="T3">
-        <v>0.14172693271100281</v>
+        <v>0.5939064418080677</v>
       </c>
       <c r="U3">
-        <v>0.77794679904487196</v>
+        <v>0.5878787878812008</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1066,64 +671,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.58965232901683295</v>
+        <v>0.1875</v>
       </c>
       <c r="C4">
-        <v>0.62223497021233543</v>
+        <v>0.42471619013077444</v>
       </c>
       <c r="D4">
-        <v>0.63510360759969087</v>
+        <v>0.5526315789473678</v>
       </c>
       <c r="E4">
-        <v>0.10599086454042898</v>
+        <v>0.24701849994431685</v>
       </c>
       <c r="F4">
-        <v>0.42538477108847211</v>
+        <v>0.7172912255297823</v>
       </c>
       <c r="G4">
-        <v>0.17317355876510868</v>
+        <v>0.4853222507368293</v>
       </c>
       <c r="H4">
-        <v>2.6595743518870892E-2</v>
+        <v>0.7262197969583524</v>
       </c>
       <c r="I4">
-        <v>0.27219727049873021</v>
+        <v>0.6388442109949559</v>
       </c>
       <c r="J4">
-        <v>0.17707358591595912</v>
+        <v>0.2715410520081807</v>
       </c>
       <c r="K4">
-        <v>0.1111111078489915</v>
+        <v>0.43971989296031866</v>
       </c>
       <c r="L4">
-        <v>0.48000000901708867</v>
+        <v>0.6388442109949564</v>
       </c>
       <c r="M4">
-        <v>9.3103651134410145E-2</v>
+        <v>0.6058720202246065</v>
       </c>
       <c r="N4">
-        <v>0.66394761514713374</v>
+        <v>0.5280130616315941</v>
       </c>
       <c r="O4">
-        <v>0.25286763803306261</v>
+        <v>0.5666666666675139</v>
       </c>
       <c r="P4">
-        <v>0.60657031742496459</v>
+        <v>0.9214578921964502</v>
       </c>
       <c r="Q4">
-        <v>0.3882408631971907</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>0.22360293215938981</v>
+        <v>0.4705882352941164</v>
       </c>
       <c r="S4">
-        <v>0.85739391396978837</v>
+        <v>0.6864038910825292</v>
       </c>
       <c r="T4">
-        <v>0.26569898589219992</v>
+        <v>0.22096989295553665</v>
       </c>
       <c r="U4">
-        <v>4.2846504588358723E-2</v>
+        <v>0.4247161901304985</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1131,64 +736,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.88495234636864417</v>
+        <v>0.42471619013076845</v>
       </c>
       <c r="C5">
-        <v>0.35369742325507897</v>
+        <v>0.7546485260784488</v>
       </c>
       <c r="D5">
-        <v>0.6547971776305902</v>
+        <v>0.5280130616315888</v>
       </c>
       <c r="E5">
-        <v>0.35442306790599609</v>
+        <v>0.6232149358984436</v>
       </c>
       <c r="F5">
-        <v>0.49760517909090052</v>
+        <v>0.38786852750332956</v>
       </c>
       <c r="G5">
-        <v>0.3720930232553466</v>
+        <v>0.4547912255254113</v>
       </c>
       <c r="H5">
-        <v>0.55525709007406432</v>
+        <v>0.6388442109949557</v>
       </c>
       <c r="I5">
-        <v>0.39172947841684852</v>
+        <v>0.38709677419354716</v>
       </c>
       <c r="J5">
-        <v>0.48042864776333793</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K5">
-        <v>8.7247256516351651E-2</v>
+        <v>0.42471619013077144</v>
       </c>
       <c r="L5">
-        <v>8.7677805900078315E-2</v>
+        <v>0.10011248057960795</v>
       </c>
       <c r="M5">
-        <v>0.27261814019499514</v>
+        <v>0.4470184999486735</v>
       </c>
       <c r="N5">
-        <v>0.36358492142557136</v>
+        <v>0.7653350132366397</v>
       </c>
       <c r="O5">
-        <v>0.23577844247406088</v>
+        <v>0.2470184999443091</v>
       </c>
       <c r="P5">
-        <v>0.17128866827142517</v>
+        <v>0.3385135135096936</v>
       </c>
       <c r="Q5">
-        <v>0.79312687956560657</v>
+        <v>0.5913828567974355</v>
       </c>
       <c r="R5">
-        <v>0.58810811714671396</v>
+        <v>0.528013061631589</v>
       </c>
       <c r="S5">
-        <v>0.54896216220615635</v>
+        <v>0.6070175438625587</v>
       </c>
       <c r="T5">
-        <v>0.79454035679012069</v>
+        <v>0.7663202349115157</v>
       </c>
       <c r="U5">
-        <v>0.76608178975019625</v>
+        <v>0.5925925925938966</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1196,79 +801,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.17398941516820929</v>
+        <v>0.42471619013076845</v>
       </c>
       <c r="C6">
-        <v>0.2391661880700908</v>
+        <v>0.14014466546379298</v>
       </c>
       <c r="D6">
-        <v>0.7803684757023952</v>
+        <v>0.43884421099059073</v>
       </c>
       <c r="E6">
-        <v>0.32739575291184114</v>
+        <v>0.47154105201254076</v>
       </c>
       <c r="F6">
-        <v>0.49872851323880812</v>
+        <v>0.6864038910825295</v>
       </c>
       <c r="G6">
-        <v>0.13621610398163078</v>
+        <v>0.16973532796567586</v>
       </c>
       <c r="H6">
-        <v>0.62768449752881184</v>
+        <v>0.6346644639129966</v>
       </c>
       <c r="I6">
-        <v>0.6608353495836643</v>
+        <v>0.4857142857099204</v>
       </c>
       <c r="J6">
-        <v>0.84795124811178402</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K6">
-        <v>0.53609209701968286</v>
+        <v>0.6388442109949579</v>
       </c>
       <c r="L6">
-        <v>0.97200323990727067</v>
+        <v>0.35294117647058315</v>
       </c>
       <c r="M6">
-        <v>0.33830091082495017</v>
+        <v>0.5903540903554415</v>
       </c>
       <c r="N6">
-        <v>0.36525147345284337</v>
+        <v>0.6363636363633052</v>
       </c>
       <c r="O6">
-        <v>0.64377696282473484</v>
+        <v>0.5939064418080695</v>
       </c>
       <c r="P6">
-        <v>0.85985698992346893</v>
+        <v>0.628571428571425</v>
       </c>
       <c r="Q6">
-        <v>0.57846765609742945</v>
+        <v>1.0</v>
       </c>
       <c r="R6">
-        <v>0.8387451065347904</v>
+        <v>0.684298756449503</v>
       </c>
       <c r="S6">
-        <v>0.53801956225682712</v>
+        <v>0.38786852750333967</v>
       </c>
       <c r="T6">
-        <v>0.59163450734265755</v>
+        <v>0.4838709677424049</v>
       </c>
       <c r="U6">
-        <v>0.54530226950066285</v>
+        <v>0.38888888888888584</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8C8885-4229-4244-BAA5-74D190F7597C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1337,64 +941,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53304348768534482</v>
+        <v>0.43426306162954814</v>
       </c>
       <c r="C2">
-        <v>0.46026990875270263</v>
+        <v>0.3395836173903227</v>
       </c>
       <c r="D2">
-        <v>0.30307635433563096</v>
+        <v>0.592278079703324</v>
       </c>
       <c r="E2">
-        <v>0.57528674052121109</v>
+        <v>0.557439975385064</v>
       </c>
       <c r="F2">
-        <v>0.73502758549407465</v>
+        <v>0.4032684999477393</v>
       </c>
       <c r="G2">
-        <v>0.6475524672402202</v>
+        <v>0.517361111109267</v>
       </c>
       <c r="H2">
-        <v>0.66591393223869377</v>
+        <v>0.256839928517532</v>
       </c>
       <c r="I2">
-        <v>0.41182982495577619</v>
+        <v>0.5119450779571794</v>
       </c>
       <c r="J2">
-        <v>0.17440390385227156</v>
+        <v>0.43884421099059046</v>
       </c>
       <c r="K2">
-        <v>0.59547729033053887</v>
+        <v>0.4864038910781637</v>
       </c>
       <c r="L2">
-        <v>0.5909435554884116</v>
+        <v>0.5735412255280057</v>
       </c>
       <c r="M2">
-        <v>0.72967741005965803</v>
+        <v>0.29701849994607543</v>
       </c>
       <c r="N2">
-        <v>0.70870371300002633</v>
+        <v>0.35279105200996963</v>
       </c>
       <c r="O2">
-        <v>0.88652483834724782</v>
+        <v>0.2999999999999994</v>
       </c>
       <c r="P2">
-        <v>0.23884386936223784</v>
+        <v>0.5183125161330889</v>
       </c>
       <c r="Q2">
-        <v>0.50995873577099415</v>
+        <v>0.5997161901345885</v>
       </c>
       <c r="R2">
-        <v>0.73091595493663986</v>
+        <v>0.3282684999460892</v>
       </c>
       <c r="S2">
-        <v>0.45138312966226957</v>
+        <v>0.42096989295989395</v>
       </c>
       <c r="T2">
-        <v>0.89835216418614583</v>
+        <v>0.4864038910781637</v>
       </c>
       <c r="U2">
-        <v>0.91588785976882015</v>
+        <v>0.5693602693632449</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1402,64 +1006,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.5618443883064036</v>
+        <v>0.5299393939423619</v>
       </c>
       <c r="C3">
-        <v>0.47775509274089811</v>
+        <v>0.5697372244114973</v>
       </c>
       <c r="D3">
-        <v>0.39650615276343781</v>
+        <v>0.3809698929599086</v>
       </c>
       <c r="E3">
-        <v>0.64728199543199616</v>
+        <v>0.7603603603634017</v>
       </c>
       <c r="F3">
-        <v>0.57033781974985298</v>
+        <v>0.3414937846086644</v>
       </c>
       <c r="G3">
-        <v>0.63527232205319706</v>
+        <v>0.45555555555701005</v>
       </c>
       <c r="H3">
-        <v>0.77200000929640722</v>
+        <v>0.4209698929598986</v>
       </c>
       <c r="I3">
-        <v>0.57656471517859342</v>
+        <v>0.4715410520125447</v>
       </c>
       <c r="J3">
-        <v>0.65517242309002854</v>
+        <v>0.42096989295991016</v>
       </c>
       <c r="K3">
-        <v>0.65401316475466931</v>
+        <v>0.5714285714285704</v>
       </c>
       <c r="L3">
-        <v>0.45324297095584914</v>
+        <v>0.4864038910781637</v>
       </c>
       <c r="M3">
-        <v>0.64366063403969487</v>
+        <v>0.6673076923094592</v>
       </c>
       <c r="N3">
-        <v>0.67215684388959263</v>
+        <v>0.4601185709763045</v>
       </c>
       <c r="O3">
-        <v>0.36879332037237678</v>
+        <v>0.4864038910781622</v>
       </c>
       <c r="P3">
-        <v>0.55882352877729269</v>
+        <v>0.5945945945950362</v>
       </c>
       <c r="Q3">
-        <v>0.37169292447749475</v>
+        <v>0.41890644180424824</v>
       </c>
       <c r="R3">
-        <v>0.61318337168727877</v>
+        <v>0.17506458664110303</v>
       </c>
       <c r="S3">
-        <v>0.51501357259235281</v>
+        <v>0.36290322580997364</v>
       </c>
       <c r="T3">
-        <v>0.14172693240228992</v>
+        <v>0.41890639790190476</v>
       </c>
       <c r="U3">
-        <v>0.57794678075206252</v>
+        <v>0.3878787878768363</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1467,64 +1071,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.38965231072464412</v>
+        <v>0.06369047618777285</v>
       </c>
       <c r="C4">
-        <v>0.82125364823866109</v>
+        <v>0.5184661901328076</v>
       </c>
       <c r="D4">
-        <v>0.43510358930770487</v>
+        <v>0.47138157894558275</v>
       </c>
       <c r="E4">
-        <v>0.10599086423171598</v>
+        <v>0.4032684999477364</v>
       </c>
       <c r="F4">
-        <v>0.22538475237897437</v>
+        <v>0.6799062719669964</v>
       </c>
       <c r="G4">
-        <v>0.18292682831162005</v>
+        <v>0.5040722507372217</v>
       </c>
       <c r="H4">
-        <v>1.0368394821936716E-8</v>
+        <v>0.5699697969549172</v>
       </c>
       <c r="I4">
-        <v>0.1645406578744309</v>
+        <v>0.4864038910781637</v>
       </c>
       <c r="J4">
-        <v>0.17707358563087305</v>
+        <v>0.4715410520125466</v>
       </c>
       <c r="K4">
-        <v>9.8717348243119937E-2</v>
+        <v>0.4209698929599055</v>
       </c>
       <c r="L4">
-        <v>0.27999999070041259</v>
+        <v>0.43884421099059046</v>
       </c>
       <c r="M4">
-        <v>0.29310366945302146</v>
+        <v>0.4864038910781637</v>
       </c>
       <c r="N4">
-        <v>0.46394759684282355</v>
+        <v>0.468910000533089</v>
       </c>
       <c r="O4">
-        <v>0.25286763775932714</v>
+        <v>0.7606636784288935</v>
       </c>
       <c r="P4">
-        <v>0.40657029913401121</v>
+        <v>0.8277078921943836</v>
       </c>
       <c r="Q4">
-        <v>0.58824088150786602</v>
+        <v>0.3113281249948162</v>
       </c>
       <c r="R4">
-        <v>0.42360295070352522</v>
+        <v>0.3800759013257974</v>
       </c>
       <c r="S4">
-        <v>0.65739389563985373</v>
+        <v>0.48640389107816745</v>
       </c>
       <c r="T4">
-        <v>0.46569900421925026</v>
+        <v>0.42096989295990417</v>
       </c>
       <c r="U4">
-        <v>0.23039639779423077</v>
+        <v>0.48640389107816456</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1532,64 +1136,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.88495234666681577</v>
+        <v>0.4434661901311781</v>
       </c>
       <c r="C5">
-        <v>0.55369744158297229</v>
+        <v>0.7083333333333328</v>
       </c>
       <c r="D5">
-        <v>0.45479715930044318</v>
+        <v>0.509263061631196</v>
       </c>
       <c r="E5">
-        <v>0.55442308623352821</v>
+        <v>0.48640389107816356</v>
       </c>
       <c r="F5">
-        <v>0.69760519741899818</v>
+        <v>0.5878685275077046</v>
       </c>
       <c r="G5">
-        <v>0.53190986924800832</v>
+        <v>0.6297912255292341</v>
       </c>
       <c r="H5">
-        <v>0.35525707129476936</v>
+        <v>0.43884421099059046</v>
       </c>
       <c r="I5">
-        <v>0.39172947814218168</v>
+        <v>0.5832661290364506</v>
       </c>
       <c r="J5">
-        <v>0.28042862945871</v>
+        <v>0.6614697851618438</v>
       </c>
       <c r="K5">
-        <v>0.28724727487021107</v>
+        <v>0.4434661901311779</v>
       </c>
       <c r="L5">
-        <v>8.774305587480534E-2</v>
+        <v>0.18136248058138274</v>
       </c>
       <c r="M5">
-        <v>0.27261813991834849</v>
+        <v>0.2678762438755822</v>
       </c>
       <c r="N5">
-        <v>0.36389049233772974</v>
+        <v>0.6715873928538609</v>
       </c>
       <c r="O5">
-        <v>0.4357784608233915</v>
+        <v>0.4032684999477274</v>
       </c>
       <c r="P5">
-        <v>0.37128868663589171</v>
+        <v>0.513513513513499</v>
       </c>
       <c r="Q5">
-        <v>0.79312687984225316</v>
+        <v>0.7662913386758882</v>
       </c>
       <c r="R5">
-        <v>0.38810809879451641</v>
+        <v>0.5092630616311811</v>
       </c>
       <c r="S5">
-        <v>0.34896214385402163</v>
+        <v>0.40701754385819394</v>
       </c>
       <c r="T5">
-        <v>0.79454035706676751</v>
+        <v>0.5663202349071532</v>
       </c>
       <c r="U5">
-        <v>0.80290116690265845</v>
+        <v>0.7488425925973067</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1597,79 +1201,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.17398941489156303</v>
+        <v>0.4817151076133428</v>
       </c>
       <c r="C6">
-        <v>0.43916620641235637</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.78474336697948599</v>
+        <v>0.5759830269285677</v>
       </c>
       <c r="E6">
-        <v>0.52739577126569948</v>
+        <v>0.31755834504922087</v>
       </c>
       <c r="F6">
-        <v>0.49872851351545477</v>
+        <v>0.4864038910781679</v>
       </c>
       <c r="G6">
-        <v>0.13621610370498421</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.42768447917060992</v>
+        <v>0.48640389107816356</v>
       </c>
       <c r="I6">
-        <v>0.53038665072482416</v>
+        <v>0.5044642857103104</v>
       </c>
       <c r="J6">
-        <v>0.6479512297579243</v>
+        <v>0.2219551282071745</v>
       </c>
       <c r="K6">
-        <v>0.33648619317012762</v>
+        <v>0.46384421099113626</v>
       </c>
       <c r="L6">
-        <v>0.77200322155338963</v>
+        <v>0.4341911764723577</v>
       </c>
       <c r="M6">
-        <v>0.53830092917376082</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="N6">
-        <v>0.56525149180670375</v>
+        <v>0.5856343309185054</v>
       </c>
       <c r="O6">
-        <v>0.64377696310137922</v>
+        <v>0.4189064418042391</v>
       </c>
       <c r="P6">
-        <v>0.8598569902001153</v>
+        <v>0.4864038910781679</v>
       </c>
       <c r="Q6">
-        <v>0.37846763774357117</v>
+        <v>0.9714843749961849</v>
       </c>
       <c r="R6">
-        <v>0.83874510681143666</v>
+        <v>0.603048756447728</v>
       </c>
       <c r="S6">
-        <v>0.73801958061068573</v>
+        <v>0.5878685275077054</v>
       </c>
       <c r="T6">
-        <v>0.59163450762323888</v>
+        <v>0.5937499999996843</v>
       </c>
       <c r="U6">
-        <v>0.34530225114680446</v>
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7485265B-4969-AD47-A22C-84205FA588F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1738,64 +1341,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53304348745537911</v>
+        <v>0.328013061627229</v>
       </c>
       <c r="C2">
-        <v>0.26026989077283136</v>
+        <v>0.47154105201254615</v>
       </c>
       <c r="D2">
-        <v>0.50307637221988122</v>
+        <v>0.7826086956521724</v>
       </c>
       <c r="E2">
-        <v>0.57528674119225875</v>
+        <v>0.624716190135141</v>
       </c>
       <c r="F2">
-        <v>0.73502758480405495</v>
+        <v>0.44701849994867504</v>
       </c>
       <c r="G2">
-        <v>0.44755244931524313</v>
+        <v>0.411111111106945</v>
       </c>
       <c r="H2">
-        <v>0.46591391431993023</v>
+        <v>0.375589928520097</v>
       </c>
       <c r="I2">
-        <v>0.61182984285346453</v>
+        <v>0.45479122552541906</v>
       </c>
       <c r="J2">
-        <v>0.17440390453560087</v>
+        <v>0.5908442109939083</v>
       </c>
       <c r="K2">
-        <v>0.39547727241045272</v>
+        <v>0.4857432621324525</v>
       </c>
       <c r="L2">
-        <v>0.39094353756872646</v>
+        <v>0.4547912255254156</v>
       </c>
       <c r="M2">
-        <v>0.7296774107328321</v>
+        <v>0.4157684999486695</v>
       </c>
       <c r="N2">
-        <v>0.70870371231489371</v>
+        <v>0.4715410520125449</v>
       </c>
       <c r="O2">
-        <v>0.77379680214711732</v>
+        <v>0.13584905660048013</v>
       </c>
       <c r="P2">
-        <v>0.43884388726779455</v>
+        <v>0.46666666666714596</v>
       </c>
       <c r="Q2">
-        <v>0.70995875368004968</v>
+        <v>0.42471619013076856</v>
       </c>
       <c r="R2">
-        <v>0.7309159542156648</v>
+        <v>0.44701849994866394</v>
       </c>
       <c r="S2">
-        <v>0.37362638263278597</v>
+        <v>0.4952652243267257</v>
       </c>
       <c r="T2">
-        <v>0.69835214627833087</v>
+        <v>0.3572727999351094</v>
       </c>
       <c r="U2">
-        <v>0.71588784184321907</v>
+        <v>0.39393939393801913</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1803,64 +1406,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.57339776860056102</v>
+        <v>0.39393939393937716</v>
       </c>
       <c r="C3">
-        <v>0.47775509344069883</v>
+        <v>0.625737224412689</v>
       </c>
       <c r="D3">
-        <v>0.19650613484930113</v>
+        <v>0.44701849994868237</v>
       </c>
       <c r="E3">
-        <v>0.65389212275303543</v>
+        <v>0.6190476190476139</v>
       </c>
       <c r="F3">
-        <v>0.57033782042339798</v>
+        <v>0.4715410520125159</v>
       </c>
       <c r="G3">
-        <v>0.63527232273131873</v>
+        <v>0.25555555555264525</v>
       </c>
       <c r="H3">
-        <v>0.7720000086071821</v>
+        <v>0.299453520274876</v>
       </c>
       <c r="I3">
-        <v>0.37656469725554154</v>
+        <v>0.31954105200922844</v>
       </c>
       <c r="J3">
-        <v>0.65517242239536688</v>
+        <v>0.32334313388504154</v>
       </c>
       <c r="K3">
-        <v>0.65401316543715682</v>
+        <v>0.4379017209172933</v>
       </c>
       <c r="L3">
-        <v>0.45324297163935418</v>
+        <v>0.5424038910793876</v>
       </c>
       <c r="M3">
-        <v>0.65378600483363281</v>
+        <v>0.4923076923056393</v>
       </c>
       <c r="N3">
-        <v>0.67215684319238522</v>
+        <v>0.6247161901351344</v>
       </c>
       <c r="O3">
-        <v>0.43833959611725171</v>
+        <v>0.4857432621324541</v>
       </c>
       <c r="P3">
-        <v>0.68494363283813253</v>
+        <v>0.46666666666554424</v>
       </c>
       <c r="Q3">
-        <v>0.57169294236608736</v>
+        <v>0.5939064418080763</v>
       </c>
       <c r="R3">
-        <v>0.80331268315551085</v>
+        <v>0.2702702702706635</v>
       </c>
       <c r="S3">
-        <v>0.51501357190217767</v>
+        <v>0.16290322580560676</v>
       </c>
       <c r="T3">
-        <v>0.34172695030982064</v>
+        <v>0.5939064418080677</v>
       </c>
       <c r="U3">
-        <v>0.77794679865910144</v>
+        <v>0.5878787878812007</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1868,64 +1471,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.58740332221364011</v>
+        <v>0.26369047619213937</v>
       </c>
       <c r="C4">
-        <v>0.82125364754264096</v>
+        <v>0.624716190135134</v>
       </c>
       <c r="D4">
-        <v>0.63510360721176673</v>
+        <v>0.35263157894300295</v>
       </c>
       <c r="E4">
-        <v>0.30599088217264525</v>
+        <v>0.4470184999486766</v>
       </c>
       <c r="F4">
-        <v>0.37234040610538188</v>
+        <v>0.5172912255254143</v>
       </c>
       <c r="G4">
-        <v>0.37317357716168453</v>
+        <v>0.685322250741196</v>
       </c>
       <c r="H4">
-        <v>7.4915250133218009E-5</v>
+        <v>0.526219796953993</v>
       </c>
       <c r="I4">
-        <v>0.1645406582731648</v>
+        <v>0.5299678204818149</v>
       </c>
       <c r="J4">
-        <v>0.37707360365269504</v>
+        <v>0.31051038188265956</v>
       </c>
       <c r="K4">
-        <v>9.8717348649115882E-2</v>
+        <v>0.23971989295595275</v>
       </c>
       <c r="L4">
-        <v>0.48000000888218675</v>
+        <v>0.5908442109939058</v>
       </c>
       <c r="M4">
-        <v>9.310365125591806E-2</v>
+        <v>0.4547912255254142</v>
       </c>
       <c r="N4">
-        <v>0.46394759724715529</v>
+        <v>0.32801306162722915</v>
       </c>
       <c r="O4">
-        <v>0.45286765593895301</v>
+        <v>0.63157894736842</v>
       </c>
       <c r="P4">
-        <v>0.41867821686559448</v>
+        <v>0.7214578921920846</v>
       </c>
       <c r="Q4">
-        <v>0.43448275862138452</v>
+        <v>0.4375</v>
       </c>
       <c r="R4">
-        <v>0.22360293228089775</v>
+        <v>0.5800759013301691</v>
       </c>
       <c r="S4">
-        <v>0.85739391384828045</v>
+        <v>0.6384038910814929</v>
       </c>
       <c r="T4">
-        <v>0.46569900379053991</v>
+        <v>0.22110615738052275</v>
       </c>
       <c r="U4">
-        <v>4.2846504709867284E-2</v>
+        <v>0.4547912255254154</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1933,64 +1536,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.68495232846130505</v>
+        <v>0.6247161901351344</v>
       </c>
       <c r="C5">
-        <v>0.55369744115681652</v>
+        <v>0.5546485260740823</v>
       </c>
       <c r="D5">
-        <v>0.45479715971793655</v>
+        <v>0.328013061627229</v>
       </c>
       <c r="E5">
-        <v>0.47440520350177212</v>
+        <v>0.47619047619047516</v>
       </c>
       <c r="F5">
-        <v>0.49760517921645619</v>
+        <v>0.45186852750471823</v>
       </c>
       <c r="G5">
-        <v>0.33190985104235127</v>
+        <v>0.4547912255254142</v>
       </c>
       <c r="H5">
-        <v>0.35525707171895982</v>
+        <v>0.5908442109939083</v>
       </c>
       <c r="I5">
-        <v>0.59172949635102723</v>
+        <v>0.44000000000127415</v>
       </c>
       <c r="J5">
-        <v>0.28042862987838968</v>
+        <v>0.8614697851662108</v>
       </c>
       <c r="K5">
-        <v>0.28724727443404607</v>
+        <v>0.6247161901351344</v>
       </c>
       <c r="L5">
-        <v>0.28767782380253293</v>
+        <v>0.30011248058397344</v>
       </c>
       <c r="M5">
-        <v>0.47261815812917385</v>
+        <v>0.44701849994867304</v>
       </c>
       <c r="N5">
-        <v>0.21951219512353753</v>
+        <v>0.5653350132322741</v>
       </c>
       <c r="O5">
-        <v>0.23577844261709383</v>
+        <v>0.4470184999486765</v>
       </c>
       <c r="P5">
-        <v>0.17128866842506635</v>
+        <v>0.3385135135096936</v>
       </c>
       <c r="Q5">
-        <v>0.79312687942259774</v>
+        <v>0.6875</v>
       </c>
       <c r="R5">
-        <v>0.58810811699297394</v>
+        <v>0.328013061627221</v>
       </c>
       <c r="S5">
-        <v>0.41758241759327741</v>
+        <v>0.6070175438625618</v>
       </c>
       <c r="T5">
-        <v>0.59454033885559121</v>
+        <v>0.702320234910119</v>
       </c>
       <c r="U5">
-        <v>0.80290116648297893</v>
+        <v>0.7925925925974335</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1998,79 +1601,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.17398941531124262</v>
+        <v>0.5757575757579622</v>
       </c>
       <c r="C6">
-        <v>0.23916618821312399</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.78474336655980648</v>
+        <v>0.6388442109949557</v>
       </c>
       <c r="E6">
-        <v>0.5273957708343936</v>
+        <v>0.27154105200818063</v>
       </c>
       <c r="F6">
-        <v>0.29872849530462953</v>
+        <v>0.5424038910793864</v>
       </c>
       <c r="G6">
-        <v>0.33621612191580952</v>
+        <v>0.13636363636396964</v>
       </c>
       <c r="H6">
-        <v>0.62768449737519305</v>
+        <v>0.4547912255254142</v>
       </c>
       <c r="I6">
-        <v>0.46083533165362195</v>
+        <v>0.6857142857142853</v>
       </c>
       <c r="J6">
-        <v>0.64795123017760481</v>
+        <v>0.32820512820949377</v>
       </c>
       <c r="K6">
-        <v>0.53648621136953023</v>
+        <v>0.638844210994958</v>
       </c>
       <c r="L6">
-        <v>0.83188568804141105</v>
+        <v>0.5529411764749534</v>
       </c>
       <c r="M6">
-        <v>0.53830092874844759</v>
+        <v>0.39035409035107366</v>
       </c>
       <c r="N6">
-        <v>0.36525147360034471</v>
+        <v>0.4547912255254142</v>
       </c>
       <c r="O6">
-        <v>0.51592356876195355</v>
+        <v>0.5939064418080676</v>
       </c>
       <c r="P6">
-        <v>0.6598569719892895</v>
+        <v>0.5935447160216039</v>
       </c>
       <c r="Q6">
-        <v>0.37846763816766027</v>
+        <v>0.8124999999999993</v>
       </c>
       <c r="R6">
-        <v>0.6387450886044489</v>
+        <v>0.48429875644514364</v>
       </c>
       <c r="S6">
-        <v>0.53801956240382731</v>
+        <v>0.45186852750470824</v>
       </c>
       <c r="T6">
-        <v>0.39163448941283568</v>
+        <v>0.3992696287246423</v>
       </c>
       <c r="U6">
-        <v>0.3453022515664817</v>
+        <v>0.4484276729582839</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC7F8A8-80FE-9044-93B1-66155943FF3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -2139,64 +1741,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53304348775654287</v>
+        <v>0.5280130616315946</v>
       </c>
       <c r="C2">
-        <v>0.26026988979007887</v>
+        <v>0.4715410520125449</v>
       </c>
       <c r="D2">
-        <v>0.30307635413873618</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E2">
-        <v>0.77528675930478275</v>
+        <v>0.42471619013077305</v>
       </c>
       <c r="F2">
-        <v>0.73502758568377669</v>
+        <v>0.24701849994431685</v>
       </c>
       <c r="G2">
-        <v>0.44755244845074238</v>
+        <v>0.6111111111113132</v>
       </c>
       <c r="H2">
-        <v>0.66591393243212016</v>
+        <v>0.37558992852011097</v>
       </c>
       <c r="I2">
-        <v>0.4118298247596125</v>
+        <v>0.6190476190474988</v>
       </c>
       <c r="J2">
-        <v>0.37440392285255741</v>
+        <v>0.43884421099059046</v>
       </c>
       <c r="K2">
-        <v>0.39547727143917022</v>
+        <v>0.5878685275077051</v>
       </c>
       <c r="L2">
-        <v>0.58246540848998096</v>
+        <v>0.45479122552541434</v>
       </c>
       <c r="M2">
-        <v>0.92967742894690231</v>
+        <v>0.41576849994866993</v>
       </c>
       <c r="N2">
-        <v>0.50870369410885063</v>
+        <v>0.4715410520125407</v>
       </c>
       <c r="O2">
-        <v>0.97379682035713422</v>
+        <v>0.1358490566004788</v>
       </c>
       <c r="P2">
-        <v>0.438843888252827</v>
+        <v>0.3939064418037027</v>
       </c>
       <c r="Q2">
-        <v>0.70995875466684566</v>
+        <v>0.6247161901351339</v>
       </c>
       <c r="R2">
-        <v>0.73091595523135466</v>
+        <v>0.44701849994866444</v>
       </c>
       <c r="S2">
-        <v>0.45138312995868873</v>
+        <v>0.5939064418080721</v>
       </c>
       <c r="T2">
-        <v>0.69835214529938394</v>
+        <v>0.3280130616272291</v>
       </c>
       <c r="U2">
-        <v>0.71588784087238466</v>
+        <v>0.5939393939423837</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2204,64 +1806,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.76184440720322077</v>
+        <v>0.3299393939379942</v>
       </c>
       <c r="C3">
-        <v>0.47775509244577818</v>
+        <v>0.7697372244158627</v>
       </c>
       <c r="D3">
-        <v>0.39650615306113779</v>
+        <v>0.47660524690380823</v>
       </c>
       <c r="E3">
-        <v>0.45389210458000895</v>
+        <v>0.5714285714274239</v>
       </c>
       <c r="F3">
-        <v>0.65921788335236875</v>
+        <v>0.47154105201254615</v>
       </c>
       <c r="G3">
-        <v>0.80337078658242389</v>
+        <v>0.3888888888888883</v>
       </c>
       <c r="H3">
-        <v>0.77200000959372361</v>
+        <v>0.49945352027924605</v>
       </c>
       <c r="I3">
-        <v>0.37656469628772604</v>
+        <v>0.47154105201254426</v>
       </c>
       <c r="J3">
-        <v>0.45517240419837801</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K3">
-        <v>0.85401318364909462</v>
+        <v>0.43790172091729407</v>
       </c>
       <c r="L3">
-        <v>0.65324298985118923</v>
+        <v>0.6864038910825292</v>
       </c>
       <c r="M3">
-        <v>0.45378598663252395</v>
+        <v>0.6923076923100049</v>
       </c>
       <c r="N3">
-        <v>0.67215684418790955</v>
+        <v>0.6247161901351328</v>
       </c>
       <c r="O3">
-        <v>0.43833959707694403</v>
+        <v>0.5878685275077051</v>
       </c>
       <c r="P3">
-        <v>0.48494361463637448</v>
+        <v>0.6402402402422118</v>
       </c>
       <c r="Q3">
-        <v>0.37169292418263272</v>
+        <v>0.3939064418037087</v>
       </c>
       <c r="R3">
-        <v>0.60331266493439883</v>
+        <v>0.3500000000010063</v>
       </c>
       <c r="S3">
-        <v>0.31501355370116474</v>
+        <v>0.3629032258099738</v>
       </c>
       <c r="T3">
-        <v>0.34172695142124027</v>
+        <v>0.39390644180370193</v>
       </c>
       <c r="U3">
-        <v>0.77794679965306501</v>
+        <v>0.45454545454495826</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2269,64 +1871,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.58965232962519731</v>
+        <v>0.26369047619213926</v>
       </c>
       <c r="C4">
-        <v>0.82125364853797744</v>
+        <v>0.42471619013076384</v>
       </c>
       <c r="D4">
-        <v>0.43510358900515478</v>
+        <v>0.3526315789430023</v>
       </c>
       <c r="E4">
-        <v>0.10599086393185812</v>
+        <v>0.24701849994431596</v>
       </c>
       <c r="F4">
-        <v>0.22538475207686473</v>
+        <v>0.5172912255254132</v>
       </c>
       <c r="G4">
-        <v>0.37317357738105994</v>
+        <v>0.6853222507411965</v>
       </c>
       <c r="H4">
-        <v>8.8940044340361147E-9</v>
+        <v>0.726219796958353</v>
       </c>
       <c r="I4">
-        <v>0.36454067677705443</v>
+        <v>0.438844210990593</v>
       </c>
       <c r="J4">
-        <v>0.17707358533053202</v>
+        <v>0.47154105201254615</v>
       </c>
       <c r="K4">
-        <v>0.29871736714572844</v>
+        <v>0.2397198929559538</v>
       </c>
       <c r="L4">
-        <v>0.48000000960096317</v>
+        <v>0.4388442109905905</v>
       </c>
       <c r="M4">
-        <v>0.20952380962087194</v>
+        <v>0.4058720202202394</v>
       </c>
       <c r="N4">
-        <v>0.46394759654077838</v>
+        <v>0.32801306162722904</v>
       </c>
       <c r="O4">
-        <v>0.25286763745698121</v>
+        <v>0.560663678424523</v>
       </c>
       <c r="P4">
-        <v>0.40657029883115064</v>
+        <v>0.9214578921964449</v>
       </c>
       <c r="Q4">
-        <v>0.38824086260900476</v>
+        <v>0.2999999999956338</v>
       </c>
       <c r="R4">
-        <v>0.41176465134444823</v>
+        <v>0.5800759013301693</v>
       </c>
       <c r="S4">
-        <v>0.65739389535019299</v>
+        <v>0.4864038910781668</v>
       </c>
       <c r="T4">
-        <v>0.26569898530791503</v>
+        <v>0.3599999999994179</v>
       </c>
       <c r="U4">
-        <v>0.24284652333507592</v>
+        <v>0.5878685275076415</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2334,64 +1936,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.68495232774256776</v>
+        <v>0.6247161901351344</v>
       </c>
       <c r="C5">
-        <v>0.35369742266269155</v>
+        <v>0.5546485260740829</v>
       </c>
       <c r="D5">
-        <v>0.65479717822172279</v>
+        <v>0.3280130616272291</v>
       </c>
       <c r="E5">
-        <v>0.55442308653089367</v>
+        <v>0.6232149358984422</v>
       </c>
       <c r="F5">
-        <v>0.49760517849912295</v>
+        <v>0.38786852750332945</v>
       </c>
       <c r="G5">
-        <v>0.33190985032843806</v>
+        <v>0.6547912255297796</v>
       </c>
       <c r="H5">
-        <v>0.36504565492547836</v>
+        <v>0.4388442109905905</v>
       </c>
       <c r="I5">
-        <v>0.59172949706367495</v>
+        <v>0.5870967741979127</v>
       </c>
       <c r="J5">
-        <v>0.47184586321346489</v>
+        <v>0.7435897435882701</v>
       </c>
       <c r="K5">
-        <v>8.7247255945489585E-2</v>
+        <v>0.6247161901351345</v>
       </c>
       <c r="L5">
-        <v>8.7677805329216277E-2</v>
+        <v>0.30011248058397033</v>
       </c>
       <c r="M5">
-        <v>0.47261815884306924</v>
+        <v>0.2580645161290315</v>
       </c>
       <c r="N5">
-        <v>0.16389047341383073</v>
+        <v>0.7653358785527389</v>
       </c>
       <c r="O5">
-        <v>0.43577846112070845</v>
+        <v>0.24701849994430886</v>
       </c>
       <c r="P5">
-        <v>0.37128868692788358</v>
+        <v>0.5385135135140591</v>
       </c>
       <c r="Q5">
-        <v>0.59312686091821354</v>
+        <v>0.5913828567974353</v>
       </c>
       <c r="R5">
-        <v>0.58810811771632765</v>
+        <v>0.328013061627221</v>
       </c>
       <c r="S5">
-        <v>0.5489621627756891</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="T5">
-        <v>0.5945403381425336</v>
+        <v>0.766320234911524</v>
       </c>
       <c r="U5">
-        <v>0.7756227330937977</v>
+        <v>0.5925925925930651</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2399,68 +2001,467 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.37398943381630978</v>
+        <v>0.6247161901351329</v>
       </c>
       <c r="C6">
-        <v>0.43916620671816509</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.66421950672271346</v>
+        <v>0.43884421099059057</v>
       </c>
       <c r="E6">
-        <v>0.32739575234177981</v>
+        <v>0.47154105201254115</v>
       </c>
       <c r="F6">
-        <v>0.29872849459133999</v>
+        <v>0.6864038910825292</v>
       </c>
       <c r="G6">
-        <v>0.13621610341076848</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.62768449809838134</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I6">
-        <v>0.46083533093610951</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.64795122946430672</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K6">
-        <v>0.53648621209356362</v>
+        <v>0.43884421099059057</v>
       </c>
       <c r="L6">
-        <v>0.87073893841982641</v>
+        <v>0.552941176474953</v>
       </c>
       <c r="M6">
-        <v>0.33830091025466463</v>
+        <v>0.3903540903510739</v>
       </c>
       <c r="N6">
-        <v>0.56525149209965986</v>
+        <v>0.4547912255254142</v>
       </c>
       <c r="O6">
-        <v>0.44377694417718982</v>
+        <v>0.393906441803703</v>
       </c>
       <c r="P6">
-        <v>0.65985697127590637</v>
+        <v>0.6864038910825292</v>
       </c>
       <c r="Q6">
-        <v>0.57846765666703936</v>
+        <v>0.8</v>
       </c>
       <c r="R6">
-        <v>0.63874508788719542</v>
+        <v>0.4842987564451359</v>
       </c>
       <c r="S6">
-        <v>0.53801956168680398</v>
+        <v>0.38786852750333317</v>
       </c>
       <c r="T6">
-        <v>0.39163448869448336</v>
+        <v>0.3992696287246451</v>
       </c>
       <c r="U6">
-        <v>0.54530227007018095</v>
+        <v>0.24842767295391627</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.328013061627229</v>
+      </c>
+      <c r="C2">
+        <v>0.2715410520081756</v>
+      </c>
+      <c r="D2">
+        <v>0.7826086956521732</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.2470184999443165</v>
+      </c>
+      <c r="G2">
+        <v>0.4111111111069449</v>
+      </c>
+      <c r="H2">
+        <v>0.17558992851574415</v>
+      </c>
+      <c r="I2">
+        <v>0.654791225529779</v>
+      </c>
+      <c r="J2">
+        <v>0.638844210994956</v>
+      </c>
+      <c r="K2">
+        <v>0.5878685275077045</v>
+      </c>
+      <c r="L2">
+        <v>0.6547912255297796</v>
+      </c>
+      <c r="M2">
+        <v>0.2157684999443012</v>
+      </c>
+      <c r="N2">
+        <v>0.27154105200818063</v>
+      </c>
+      <c r="O2">
+        <v>0.335849056604846</v>
+      </c>
+      <c r="P2">
+        <v>0.39390644180371015</v>
+      </c>
+      <c r="Q2">
+        <v>0.6247161901351332</v>
+      </c>
+      <c r="R2">
+        <v>0.24701849994429484</v>
+      </c>
+      <c r="S2">
+        <v>0.39390644180370293</v>
+      </c>
+      <c r="T2">
+        <v>0.32801306162722893</v>
+      </c>
+      <c r="U2">
+        <v>0.5925925925938893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.529939393942362</v>
+      </c>
+      <c r="C3">
+        <v>0.7697372244158613</v>
+      </c>
+      <c r="D3">
+        <v>0.276605246899439</v>
+      </c>
+      <c r="E3">
+        <v>0.7603603603634012</v>
+      </c>
+      <c r="F3">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="G3">
+        <v>0.45555555555700966</v>
+      </c>
+      <c r="H3">
+        <v>0.2994535202748764</v>
+      </c>
+      <c r="I3">
+        <v>0.2715410520081806</v>
+      </c>
+      <c r="J3">
+        <v>0.22096989295554464</v>
+      </c>
+      <c r="K3">
+        <v>0.6379017209216596</v>
+      </c>
+      <c r="L3">
+        <v>0.6864038910825292</v>
+      </c>
+      <c r="M3">
+        <v>0.6923076923100049</v>
+      </c>
+      <c r="N3">
+        <v>0.5714285714285712</v>
+      </c>
+      <c r="O3">
+        <v>0.5878685275077051</v>
+      </c>
+      <c r="P3">
+        <v>0.6402402402422128</v>
+      </c>
+      <c r="Q3">
+        <v>0.39390644180370915</v>
+      </c>
+      <c r="R3">
+        <v>0.35</v>
+      </c>
+      <c r="S3">
+        <v>0.24999999999999933</v>
+      </c>
+      <c r="T3">
+        <v>0.3939064418037026</v>
+      </c>
+      <c r="U3">
+        <v>0.3878787878768351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.06369047618777285</v>
+      </c>
+      <c r="C4">
+        <v>0.6247161901351334</v>
+      </c>
+      <c r="D4">
+        <v>0.5526315789473709</v>
+      </c>
+      <c r="E4">
+        <v>0.2470184999443168</v>
+      </c>
+      <c r="F4">
+        <v>0.576923076925044</v>
+      </c>
+      <c r="G4">
+        <v>0.6853222507411945</v>
+      </c>
+      <c r="H4">
+        <v>0.726219796958351</v>
+      </c>
+      <c r="I4">
+        <v>0.6388442109949557</v>
+      </c>
+      <c r="J4">
+        <v>0.294117727324554</v>
+      </c>
+      <c r="K4">
+        <v>0.2397198929559529</v>
+      </c>
+      <c r="L4">
+        <v>0.6388442109949564</v>
+      </c>
+      <c r="M4">
+        <v>0.6058720202246065</v>
+      </c>
+      <c r="N4">
+        <v>0.45714285714111325</v>
+      </c>
+      <c r="O4">
+        <v>0.7307692307692305</v>
+      </c>
+      <c r="P4">
+        <v>0.721457892192081</v>
+      </c>
+      <c r="Q4">
+        <v>0.49999999999999967</v>
+      </c>
+      <c r="R4">
+        <v>0.4499999999979927</v>
+      </c>
+      <c r="S4">
+        <v>0.686403891082536</v>
+      </c>
+      <c r="T4">
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="U4">
+        <v>0.5878685275077051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.624716190135134</v>
+      </c>
+      <c r="C5">
+        <v>0.6428571428571423</v>
+      </c>
+      <c r="D5">
+        <v>0.32801306162722876</v>
+      </c>
+      <c r="E5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F5">
+        <v>0.587868527507697</v>
+      </c>
+      <c r="G5">
+        <v>0.6547912255297806</v>
+      </c>
+      <c r="H5">
+        <v>0.6388442109949563</v>
+      </c>
+      <c r="I5">
+        <v>0.3870967741935474</v>
+      </c>
+      <c r="J5">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="K5">
+        <v>0.624716190135134</v>
+      </c>
+      <c r="L5">
+        <v>0.10011248057960795</v>
+      </c>
+      <c r="M5">
+        <v>0.24701849994430555</v>
+      </c>
+      <c r="N5">
+        <v>0.5653350132322702</v>
+      </c>
+      <c r="O5">
+        <v>0.24701849994430908</v>
+      </c>
+      <c r="P5">
+        <v>0.5385135135140598</v>
+      </c>
+      <c r="Q5">
+        <v>0.7913828568018013</v>
+      </c>
+      <c r="R5">
+        <v>0.3280130616272206</v>
+      </c>
+      <c r="S5">
+        <v>0.4070175438581938</v>
+      </c>
+      <c r="T5">
+        <v>0.5663202349071544</v>
+      </c>
+      <c r="U5">
+        <v>0.592592592593066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.6247161901351335</v>
+      </c>
+      <c r="C6">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="F6">
+        <v>0.6864038910825285</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.6346644639130103</v>
+      </c>
+      <c r="I6">
+        <v>0.6857142857142846</v>
+      </c>
+      <c r="J6">
+        <v>0.32820512820949377</v>
+      </c>
+      <c r="K6">
+        <v>0.4388442109905907</v>
+      </c>
+      <c r="L6">
+        <v>0.3529411764705833</v>
+      </c>
+      <c r="M6">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="N6">
+        <v>0.6547912255297798</v>
+      </c>
+      <c r="O6">
+        <v>0.3939064418037026</v>
+      </c>
+      <c r="P6">
+        <v>0.680000000000314</v>
+      </c>
+      <c r="Q6">
+        <v>0.7999999999956344</v>
+      </c>
+      <c r="R6">
+        <v>0.6842987564495029</v>
+      </c>
+      <c r="S6">
+        <v>0.5878685275077004</v>
+      </c>
+      <c r="T6">
+        <v>0.5992696287290106</v>
+      </c>
+      <c r="U6">
+        <v>0.24842767295391832</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>